--- a/Dataset/SalesBudget.xlsx
+++ b/Dataset/SalesBudget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\720350\Desktop\Data Analyst Portfolio Data\Sales\3 - Cleansing &amp; Transformation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Sales Analysis Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0F426-EAE3-4CAE-A364-B68B0189A02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E78583-FA23-422F-B7B5-3C6A5A7140A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="1995" windowWidth="15900" windowHeight="14805" xr2:uid="{5CABF058-C44E-4B4C-A322-6CA47C838A4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CABF058-C44E-4B4C-A322-6CA47C838A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -419,19 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D3E0CB-37F1-4778-A2AE-5F0FF4562B38}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>43831</v>
       </c>
@@ -447,7 +447,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>43862</v>
       </c>
@@ -455,7 +455,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>43891</v>
       </c>
@@ -463,7 +463,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>43922</v>
       </c>
@@ -471,7 +471,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>43952</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>43983</v>
       </c>
@@ -487,7 +487,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44013</v>
       </c>
@@ -495,7 +495,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44044</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44075</v>
       </c>
@@ -511,7 +511,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44105</v>
       </c>
@@ -519,7 +519,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44136</v>
       </c>
@@ -527,7 +527,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44166</v>
       </c>
@@ -535,7 +535,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44197</v>
       </c>
@@ -543,7 +543,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44228</v>
       </c>
@@ -551,7 +551,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44256</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44287</v>
       </c>
@@ -567,7 +567,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44317</v>
       </c>
@@ -575,11 +575,155 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44348</v>
       </c>
       <c r="B19" s="2">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B20" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B21" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B32" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B33" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B37" s="2">
         <v>1100000</v>
       </c>
     </row>
